--- a/SUMR25_River_Rockfish_Proj/Raw_Data/River's_Rockfish_Metadata_Parturition_Binning_Add_On.xlsx
+++ b/SUMR25_River_Rockfish_Proj/Raw_Data/River's_Rockfish_Metadata_Parturition_Binning_Add_On.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmcke\OneDrive\Documents\Summer_2025_Rockfish_Research_Project\Raw_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2C8A27-6F09-416F-8427-CD911D0C2251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77E0059-DDAD-4A74-8B01-30A67A9F5DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4590" yWindow="3150" windowWidth="14400" windowHeight="7270" activeTab="2" xr2:uid="{1F309CE8-D94F-4E95-9E51-ED88FCC75EAC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1F309CE8-D94F-4E95-9E51-ED88FCC75EAC}"/>
   </bookViews>
   <sheets>
     <sheet name="All Gopher Tank Data" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="174">
   <si>
     <t>FISH_ID</t>
   </si>
@@ -370,18 +370,9 @@
     <t>Low</t>
   </si>
   <si>
-    <t>No notes on larvae maturity, except 'larvae full term' was recorded.</t>
-  </si>
-  <si>
-    <t>No notes on larvae survival.</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
-    <t>No notes on larvae maturity, except 'full term' and 'larvae alive and swimming' was recorded.</t>
-  </si>
-  <si>
     <t>Bin_Notes</t>
   </si>
   <si>
@@ -391,9 +382,6 @@
     <t>Processed because of atresia 3/29</t>
   </si>
   <si>
-    <t xml:space="preserve">No notes on survival, other than 'premature larvae' and 'only 100 larvae collected for...'. No notes on density, except 'brood too premature and sparse' was recorded. </t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -448,12 +436,6 @@
     <t>No info about parturition</t>
   </si>
   <si>
-    <t>Sample taken after death</t>
-  </si>
-  <si>
-    <t>No notes on larvae survival, except 'swimming larvae'.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ambient </t>
   </si>
   <si>
@@ -497,6 +479,87 @@
   </si>
   <si>
     <t>Pregnant_Or_Atresia</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>m_l</t>
+  </si>
+  <si>
+    <t>m_w</t>
+  </si>
+  <si>
+    <t>g_w</t>
+  </si>
+  <si>
+    <t>l_w</t>
+  </si>
+  <si>
+    <t>Fecundity_Or_Brood_Count</t>
+  </si>
+  <si>
+    <t>Sample_Usable?</t>
+  </si>
+  <si>
+    <t>Ask</t>
+  </si>
+  <si>
+    <t>Mixed_Eggs_and_Larvae_Parturition</t>
+  </si>
+  <si>
+    <t>Mixed eggs and larvae</t>
+  </si>
+  <si>
+    <t>All Larvae</t>
+  </si>
+  <si>
+    <t>No info about parturition, except 'buckets set up to grow out with only 1000 each' and 'Spurted some more live larve on the following two days (maybe 100ish?)'</t>
+  </si>
+  <si>
+    <t>Unsure</t>
+  </si>
+  <si>
+    <t>No notes on larvae survival, except 'swimming larvae'. Information included says 'Full parturition? with low density. Low density of swimming larvae. Larvae 7-9 days premature.'</t>
+  </si>
+  <si>
+    <t>Notes say 'Full parturition with low density. Most larvae alive and swimming. Larvae 8-10 days premature.'</t>
+  </si>
+  <si>
+    <t>Found dead in tank. Sample taken after death</t>
+  </si>
+  <si>
+    <t>Notes say 'Full parturition with high density. Majority of larvae alive and swimming. Larvae 2-4 days premature. Some eggs mixed in with live larvae. Larval photos, heart videos, swimming videos tubes, plate, otolith/ionocytes all taken and grow out buckets counted out.'</t>
+  </si>
+  <si>
+    <t>Notes say 'Full parturition on 4/3. Most larvae alive and swimming. High density of live larvae. Saw some pericardial edema and jaw deformities in larval pictures. Some eggs mixed in with brood, not sure if the eggs are from 97843 or 97810. Day 0 images, heart videos, tubes, plate, Garfield samples, buckets, swimming videos, and fecundity done.'</t>
+  </si>
+  <si>
+    <t>Likely All Larvae</t>
+  </si>
+  <si>
+    <t>Notes say 'Overflow and unsealed sieve lead to very low density of live larvae remaining. Pictures, heart video, plate, and Garfield's samples were taken, but no larvae were counted to grow out for day 5'</t>
+  </si>
+  <si>
+    <t>Notes say 'None grown out and no samples taken, entire brood born dead, pictures taken and uploaded to drive'</t>
+  </si>
+  <si>
+    <t>No notes on survival, other than 'premature larvae' and 'only 100 larvae collected for...'. No notes on density, except 'brood too premature and sparse' was recorded. Notes say 'None grown out, brood too premature and sparse, no enzyme/DNA/RNA tube or plate samples were taken, only 100 larvae were collected for Garfield's ionocytes and most larvae were gently drained from the tank to not disturb the mother 3/14, more premature larvae and eggs 3/15 no samples taken only photos taken and uploaded to drive'</t>
+  </si>
+  <si>
+    <t>Notes say 'Spurt of some live larvae on 3/5, likey from cathing on 3/4. Full parturition 3/10 with high density of live larvae. Most larvae alive and swimming. Larvae 3-4 days premature. Larval photos, heart videos, swimming videos at ambient attempted but out of focus, tubes, plate, otolith/ionocytes all taken and grow out buckets counted out.'</t>
+  </si>
+  <si>
+    <t>No notes on larvae maturity, except 'full term' and 'larvae alive and swimming' was recorded. Notes say 'Full parturition with high density. Most larvae alive and swimming. Larval photos, heart videos, swimming videos at ambient, tubes, plate, otolith/ionocytes all taken and grow out buckets counted out.' Notes also say 'OAH bucket experienced 7.0 pH and multiple boughts of ambient due to system crashes from 3/11-3/13. Quinn only able to take photos of dead larvae and unable to do strike videos of 5OAH larvae. Dailyn unable to take any samples except for 24 individuals for DNA/RNA 5OAH larvae.'</t>
+  </si>
+  <si>
+    <t>No notes on larvae maturity, except 'larvae full term' was recorded. Notes say 'Released oil globules/eggs on 3/5&amp;6. Partial parturition on 3/8 with low density. Few larvae swimming, with most of brood dead on bottom of the tank. Larvae full term. Larval photos, heart videos, tubes, plate, otolith/ionocytes all taken. No grow out buckets set up as density was too low. Partial parturition on 3/9 of remaining brood, all dead.' Notes also say 'None grown out, brood too premature and sparse due to most being born dead'</t>
+  </si>
+  <si>
+    <t>No notes on larvae survival. Notes say 'fert week of 2/12, partial parturition 3/6, larvae premature 5-7 days, medium density brood, released more dead larvae 3/7'</t>
+  </si>
+  <si>
+    <t>Notes say 'Full parturition with medium density. Most brood dead on bottom of the tank. Larvae 5-7 days premature. Larval photos and heart videos taken. No tubes, plate, or otolith/ionocyte samples taken. 1000 larvae counted out for grow out buckets but was never used.' Notes also say 'Grown out for 8 days but no samples were taken'.</t>
   </si>
 </sst>
 </file>
@@ -561,7 +624,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,6 +634,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -653,6 +752,12 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1027,7 +1132,7 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -1046,10 +1151,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98266282-F063-447E-BEE6-F317894BF3C6}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1069,12 +1175,17 @@
     <col min="14" max="14" width="16.453125" style="9" customWidth="1"/>
     <col min="15" max="15" width="20.453125" customWidth="1"/>
     <col min="16" max="16" width="27.26953125" customWidth="1"/>
-    <col min="17" max="17" width="15.6328125" customWidth="1"/>
-    <col min="18" max="18" width="15.26953125" customWidth="1"/>
-    <col min="19" max="19" width="15.453125" customWidth="1"/>
+    <col min="17" max="17" width="24.453125" customWidth="1"/>
+    <col min="18" max="18" width="22.7265625" style="29" customWidth="1"/>
+    <col min="19" max="19" width="15.453125" style="32" customWidth="1"/>
+    <col min="20" max="20" width="12.54296875" style="30" customWidth="1"/>
+    <col min="21" max="21" width="13.26953125" style="31" customWidth="1"/>
+    <col min="22" max="22" width="14.1796875" style="33" customWidth="1"/>
+    <col min="23" max="23" width="24.26953125" customWidth="1"/>
+    <col min="24" max="24" width="29.6328125" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1124,10 +1235,31 @@
         <v>16</v>
       </c>
       <c r="Q1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="S1" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="T1" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="U1" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="W1" t="s">
+        <v>153</v>
+      </c>
+      <c r="X1" s="34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
@@ -1176,8 +1308,32 @@
       <c r="P2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q2" t="s">
+        <v>173</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S2" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="T2" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="U2" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="V2" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="W2" t="s">
+        <v>96</v>
+      </c>
+      <c r="X2" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>97828</v>
       </c>
@@ -1227,10 +1383,28 @@
         <v>108</v>
       </c>
       <c r="Q3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+      <c r="S3" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="T3" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="U3" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="V3" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="W3" t="s">
+        <v>96</v>
+      </c>
+      <c r="X3" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>97811</v>
       </c>
@@ -1277,10 +1451,31 @@
         <v>97</v>
       </c>
       <c r="Q4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+      <c r="R4" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S4" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="T4" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="U4" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="V4" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="W4" t="s">
+        <v>96</v>
+      </c>
+      <c r="X4" s="34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -1306,7 +1501,7 @@
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -1330,10 +1525,31 @@
         <v>108</v>
       </c>
       <c r="Q5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="R5" s="29">
+        <v>58969.973250000003</v>
+      </c>
+      <c r="S5" s="32">
+        <v>285</v>
+      </c>
+      <c r="T5" s="30">
+        <v>518</v>
+      </c>
+      <c r="U5" s="31">
+        <v>3.52</v>
+      </c>
+      <c r="V5" s="33">
+        <v>5.77</v>
+      </c>
+      <c r="W5" t="s">
+        <v>154</v>
+      </c>
+      <c r="X5" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>53</v>
       </c>
@@ -1359,7 +1575,7 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -1380,10 +1596,34 @@
         <v>97</v>
       </c>
       <c r="P6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>169</v>
+      </c>
+      <c r="R6" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S6" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="U6" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="V6" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="W6" t="s">
+        <v>96</v>
+      </c>
+      <c r="X6" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
@@ -1421,7 +1661,7 @@
         <v>91</v>
       </c>
       <c r="M7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N7" s="14">
         <v>45380</v>
@@ -1430,13 +1670,34 @@
         <v>96</v>
       </c>
       <c r="P7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S7" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="T7" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="U7" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="V7" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="W7" t="s">
+        <v>154</v>
+      </c>
+      <c r="X7" s="34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>97838</v>
       </c>
@@ -1456,25 +1717,25 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="N8" s="14">
         <v>45380</v>
@@ -1483,10 +1744,34 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>167</v>
+      </c>
+      <c r="R8" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S8" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="T8" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="U8" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="V8" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="W8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" s="34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>97812</v>
       </c>
@@ -1500,31 +1785,31 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N9" s="14">
         <v>45380</v>
@@ -1533,10 +1818,34 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>166</v>
+      </c>
+      <c r="R9" s="29">
+        <v>39293.485220000002</v>
+      </c>
+      <c r="S9" s="32">
+        <v>305</v>
+      </c>
+      <c r="T9" s="30">
+        <v>571.20000000000005</v>
+      </c>
+      <c r="U9" s="31">
+        <v>6.88</v>
+      </c>
+      <c r="V9" s="33">
+        <v>6.26</v>
+      </c>
+      <c r="W9" t="s">
+        <v>154</v>
+      </c>
+      <c r="X9" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>97843</v>
       </c>
@@ -1562,7 +1871,7 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J10">
         <v>5</v>
@@ -1583,10 +1892,34 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>164</v>
+      </c>
+      <c r="R10" s="29">
+        <v>136811</v>
+      </c>
+      <c r="S10" s="32">
+        <v>291</v>
+      </c>
+      <c r="T10" s="30">
+        <v>503.8</v>
+      </c>
+      <c r="U10" s="31">
+        <v>3.14</v>
+      </c>
+      <c r="V10" s="33">
+        <v>7.58</v>
+      </c>
+      <c r="W10" t="s">
+        <v>96</v>
+      </c>
+      <c r="X10" s="34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>97833</v>
       </c>
@@ -1612,7 +1945,7 @@
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J11">
         <v>5</v>
@@ -1635,46 +1968,70 @@
       <c r="P11" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q11" t="s">
+        <v>163</v>
+      </c>
+      <c r="R11" s="29">
+        <v>95769</v>
+      </c>
+      <c r="S11" s="32">
+        <v>297</v>
+      </c>
+      <c r="T11" s="30">
+        <v>460.1</v>
+      </c>
+      <c r="U11" s="31">
+        <v>3.64</v>
+      </c>
+      <c r="V11" s="33">
+        <v>5.84</v>
+      </c>
+      <c r="W11" t="s">
+        <v>96</v>
+      </c>
+      <c r="X11" s="34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s">
         <v>107</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="H12" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="M12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N12" s="21">
         <v>45401</v>
@@ -1683,51 +2040,72 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Q12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="R12" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S12" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="T12" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="U12" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="V12" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="W12" t="s">
+        <v>97</v>
+      </c>
+      <c r="X12" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C13" s="23">
         <v>45400</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="G13" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="H13" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="J13" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="M13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N13" s="21">
         <v>45429</v>
@@ -1736,51 +2114,72 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+      <c r="R13" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S13" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="T13" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="U13" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="V13" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="W13" t="s">
+        <v>154</v>
+      </c>
+      <c r="X13" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C14" s="24">
         <v>45401</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="H14" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="I14" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="J14" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="M14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N14" s="21">
         <v>45429</v>
@@ -1789,13 +2188,34 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+      <c r="R14" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S14" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="T14" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="U14" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="V14" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="W14" t="s">
+        <v>154</v>
+      </c>
+      <c r="X14" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>58</v>
       </c>
@@ -1833,7 +2253,7 @@
         <v>91</v>
       </c>
       <c r="M15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N15" s="21">
         <v>45406</v>
@@ -1842,10 +2262,34 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>161</v>
+      </c>
+      <c r="R15" s="29">
+        <v>97253.290540000002</v>
+      </c>
+      <c r="S15" s="32">
+        <v>265</v>
+      </c>
+      <c r="T15" s="30">
+        <v>378.4</v>
+      </c>
+      <c r="U15" s="31">
+        <v>6.12</v>
+      </c>
+      <c r="V15" s="33">
+        <v>4.04</v>
+      </c>
+      <c r="W15" t="s">
+        <v>97</v>
+      </c>
+      <c r="X15" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>59</v>
       </c>
@@ -1892,45 +2336,66 @@
         <v>97</v>
       </c>
       <c r="Q16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+      <c r="R16" s="29">
+        <v>48264</v>
+      </c>
+      <c r="S16" s="32">
+        <v>278</v>
+      </c>
+      <c r="T16" s="30">
+        <v>422.6</v>
+      </c>
+      <c r="U16" s="31">
+        <v>4.3</v>
+      </c>
+      <c r="V16" s="33">
+        <v>7.06</v>
+      </c>
+      <c r="W16" t="s">
+        <v>96</v>
+      </c>
+      <c r="X16" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C17" s="24">
         <v>45407</v>
       </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="E17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" t="s">
-        <v>118</v>
+        <v>36</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>118</v>
-      </c>
-      <c r="H17" t="s">
-        <v>118</v>
+        <v>27</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
       </c>
       <c r="I17" t="s">
-        <v>118</v>
-      </c>
-      <c r="J17" t="s">
-        <v>118</v>
-      </c>
-      <c r="K17" t="s">
-        <v>118</v>
+        <v>110</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>20</v>
       </c>
       <c r="L17" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="M17" t="s">
         <v>81</v>
@@ -1942,45 +2407,66 @@
         <v>97</v>
       </c>
       <c r="Q17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+      <c r="R17" s="29">
+        <v>63586.473570000002</v>
+      </c>
+      <c r="S17" s="32">
+        <v>225</v>
+      </c>
+      <c r="T17" s="30">
+        <v>311.89999999999998</v>
+      </c>
+      <c r="U17" s="31">
+        <v>1.38</v>
+      </c>
+      <c r="V17" s="33">
+        <v>5.56</v>
+      </c>
+      <c r="W17" t="s">
+        <v>96</v>
+      </c>
+      <c r="X17" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C18" s="25">
         <v>45408</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="F18" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="G18" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="H18" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="I18" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="J18" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="K18" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="L18" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="M18" t="s">
         <v>81</v>
@@ -1992,10 +2478,31 @@
         <v>96</v>
       </c>
       <c r="Q18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+      <c r="R18" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S18" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="T18" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="U18" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="V18" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="W18" t="s">
+        <v>96</v>
+      </c>
+      <c r="X18" s="34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>62</v>
       </c>
@@ -2006,31 +2513,31 @@
         <v>45408</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="G19" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="H19" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="I19" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="J19" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="K19" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="M19" t="s">
         <v>81</v>
@@ -2042,45 +2549,66 @@
         <v>97</v>
       </c>
       <c r="Q19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+      <c r="R19" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S19" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="T19" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="U19" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="V19" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="W19" t="s">
+        <v>96</v>
+      </c>
+      <c r="X19" s="34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C20" s="24">
         <v>45409</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="F20" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="G20" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="H20" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="I20" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="J20" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="K20" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="L20" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="M20" t="s">
         <v>81</v>
@@ -2092,13 +2620,34 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="Q20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+      <c r="R20" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S20" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="T20" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="U20" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="V20" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="W20" t="s">
+        <v>154</v>
+      </c>
+      <c r="X20" s="34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
@@ -2109,31 +2658,31 @@
         <v>45414</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" t="s">
-        <v>118</v>
+        <v>36</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>118</v>
-      </c>
-      <c r="H21" t="s">
-        <v>118</v>
+        <v>27</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>118</v>
-      </c>
-      <c r="J21" t="s">
-        <v>118</v>
-      </c>
-      <c r="K21" t="s">
-        <v>118</v>
+        <v>110</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="M21" t="s">
         <v>81</v>
@@ -2145,10 +2694,31 @@
         <v>96</v>
       </c>
       <c r="Q21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+      <c r="R21" s="29">
+        <v>51746</v>
+      </c>
+      <c r="S21" s="32">
+        <v>248</v>
+      </c>
+      <c r="T21" s="30">
+        <v>321.3</v>
+      </c>
+      <c r="U21" s="31">
+        <v>3.46</v>
+      </c>
+      <c r="V21" s="33">
+        <v>4.43</v>
+      </c>
+      <c r="W21" t="s">
+        <v>96</v>
+      </c>
+      <c r="X21" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -2159,31 +2729,31 @@
         <v>45417</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="E22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" t="s">
-        <v>118</v>
+        <v>36</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>118</v>
-      </c>
-      <c r="H22" t="s">
-        <v>118</v>
+        <v>27</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>118</v>
-      </c>
-      <c r="J22" t="s">
-        <v>118</v>
-      </c>
-      <c r="K22" t="s">
-        <v>118</v>
+        <v>110</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>20</v>
       </c>
       <c r="L22" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="M22" t="s">
         <v>81</v>
@@ -2195,48 +2765,69 @@
         <v>97</v>
       </c>
       <c r="Q22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+      <c r="R22" s="29">
+        <v>106572.7294</v>
+      </c>
+      <c r="S22" s="32">
+        <v>255</v>
+      </c>
+      <c r="T22" s="30">
+        <v>299.60000000000002</v>
+      </c>
+      <c r="U22" s="31">
+        <v>4.43</v>
+      </c>
+      <c r="V22" s="33">
+        <v>3.18</v>
+      </c>
+      <c r="W22" t="s">
+        <v>96</v>
+      </c>
+      <c r="X22" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C23" s="24">
         <v>45418</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="F23" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="G23" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="H23" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="I23" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="J23" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="K23" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="L23" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="M23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N23" s="20">
         <v>45424</v>
@@ -2245,13 +2836,34 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q23" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+      <c r="R23" s="29">
+        <v>81896.277610000005</v>
+      </c>
+      <c r="S23" s="32">
+        <v>290</v>
+      </c>
+      <c r="T23" s="30">
+        <v>494.7</v>
+      </c>
+      <c r="U23" s="31">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="V23" s="33">
+        <v>11.18</v>
+      </c>
+      <c r="W23" t="s">
+        <v>97</v>
+      </c>
+      <c r="X23" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>67</v>
       </c>
@@ -2262,31 +2874,31 @@
         <v>45419</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="E24" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" t="s">
-        <v>118</v>
+        <v>36</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>118</v>
-      </c>
-      <c r="H24" t="s">
-        <v>118</v>
+        <v>27</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
       </c>
       <c r="I24" t="s">
-        <v>118</v>
-      </c>
-      <c r="J24" t="s">
-        <v>118</v>
-      </c>
-      <c r="K24" t="s">
-        <v>118</v>
+        <v>80</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>18</v>
       </c>
       <c r="L24" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="M24" t="s">
         <v>81</v>
@@ -2298,45 +2910,66 @@
         <v>97</v>
       </c>
       <c r="Q24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+      <c r="R24" s="29">
+        <v>2206</v>
+      </c>
+      <c r="S24" s="32">
+        <v>266</v>
+      </c>
+      <c r="T24" s="30">
+        <v>354.9</v>
+      </c>
+      <c r="U24" s="31">
+        <v>6.22</v>
+      </c>
+      <c r="V24" s="33">
+        <v>6.22</v>
+      </c>
+      <c r="W24" t="s">
+        <v>96</v>
+      </c>
+      <c r="X24" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C25" s="24">
         <v>45419</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="F25" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="G25" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="H25" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="I25" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="J25" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="K25" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="L25" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="M25" t="s">
         <v>81</v>
@@ -2348,45 +2981,66 @@
         <v>97</v>
       </c>
       <c r="Q25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+      <c r="R25" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S25" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="T25" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="U25" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="V25" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="W25" t="s">
+        <v>96</v>
+      </c>
+      <c r="X25" s="34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C26" s="24">
         <v>45422</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="E26" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26" t="s">
-        <v>118</v>
+        <v>36</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>118</v>
-      </c>
-      <c r="H26" t="s">
-        <v>118</v>
+        <v>27</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
       </c>
       <c r="I26" t="s">
-        <v>118</v>
-      </c>
-      <c r="J26" t="s">
-        <v>118</v>
-      </c>
-      <c r="K26" t="s">
-        <v>118</v>
+        <v>110</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>20</v>
       </c>
       <c r="L26" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="M26" t="s">
         <v>81</v>
@@ -2398,10 +3052,31 @@
         <v>97</v>
       </c>
       <c r="Q26" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+      <c r="R26" s="29">
+        <v>46895</v>
+      </c>
+      <c r="S26" s="32">
+        <v>258</v>
+      </c>
+      <c r="T26" s="30">
+        <v>317.8</v>
+      </c>
+      <c r="U26" s="31">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="V26" s="33">
+        <v>4.3</v>
+      </c>
+      <c r="W26" t="s">
+        <v>96</v>
+      </c>
+      <c r="X26" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>70</v>
       </c>
@@ -2409,34 +3084,34 @@
         <v>78</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
       </c>
       <c r="E27" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="F27" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="G27" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="H27" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="I27" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="J27" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="K27" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="L27" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="M27" t="s">
         <v>81</v>
@@ -2448,60 +3123,102 @@
         <v>97</v>
       </c>
       <c r="Q27" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+      <c r="R27" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S27" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="T27" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="U27" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="V27" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="W27" t="s">
+        <v>96</v>
+      </c>
+      <c r="X27" s="34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>77795</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C28" s="24">
         <v>45427</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="E28" t="s">
-        <v>118</v>
-      </c>
-      <c r="F28" t="s">
-        <v>118</v>
+        <v>36</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>118</v>
-      </c>
-      <c r="H28" t="s">
-        <v>118</v>
+        <v>27</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
       </c>
       <c r="I28" t="s">
-        <v>118</v>
-      </c>
-      <c r="J28" t="s">
-        <v>118</v>
-      </c>
-      <c r="K28" t="s">
-        <v>118</v>
+        <v>110</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <v>20</v>
       </c>
       <c r="L28" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="M28" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O28" t="s">
         <v>96</v>
       </c>
       <c r="Q28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+      <c r="R28" s="29">
+        <v>56472</v>
+      </c>
+      <c r="S28" s="32">
+        <v>260</v>
+      </c>
+      <c r="T28" s="30">
+        <v>312.5</v>
+      </c>
+      <c r="U28" s="31">
+        <v>1.89</v>
+      </c>
+      <c r="V28" s="33">
+        <v>3.38</v>
+      </c>
+      <c r="W28" t="s">
+        <v>96</v>
+      </c>
+      <c r="X28" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>71</v>
       </c>
@@ -2512,96 +3229,138 @@
         <v>45427</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="E29" t="s">
-        <v>118</v>
-      </c>
-      <c r="F29" t="s">
-        <v>118</v>
+        <v>36</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>118</v>
-      </c>
-      <c r="H29" t="s">
-        <v>118</v>
+        <v>27</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
       </c>
       <c r="I29" t="s">
-        <v>118</v>
-      </c>
-      <c r="J29" t="s">
-        <v>118</v>
-      </c>
-      <c r="K29" t="s">
-        <v>118</v>
+        <v>110</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>20</v>
       </c>
       <c r="L29" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="M29" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O29" t="s">
         <v>97</v>
       </c>
       <c r="Q29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+      <c r="R29" s="29">
+        <v>70995</v>
+      </c>
+      <c r="S29" s="32">
+        <v>254</v>
+      </c>
+      <c r="T29" s="30">
+        <v>293.5</v>
+      </c>
+      <c r="U29" s="31">
+        <v>2.74</v>
+      </c>
+      <c r="V29" s="33">
+        <v>2.9</v>
+      </c>
+      <c r="W29" t="s">
+        <v>96</v>
+      </c>
+      <c r="X29" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C30" s="24">
         <v>45429</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" t="s">
-        <v>118</v>
+        <v>36</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>118</v>
-      </c>
-      <c r="H30" t="s">
-        <v>118</v>
+        <v>27</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>118</v>
-      </c>
-      <c r="J30" t="s">
-        <v>118</v>
-      </c>
-      <c r="K30" t="s">
-        <v>118</v>
+        <v>110</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <v>20</v>
       </c>
       <c r="L30" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="M30" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O30" t="s">
         <v>97</v>
       </c>
       <c r="Q30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+      <c r="R30" s="29">
+        <v>64214.405989999999</v>
+      </c>
+      <c r="S30" s="32">
+        <v>248</v>
+      </c>
+      <c r="T30" s="30">
+        <v>288.7</v>
+      </c>
+      <c r="U30" s="31">
+        <v>1.71</v>
+      </c>
+      <c r="V30" s="33">
+        <v>3.96</v>
+      </c>
+      <c r="W30" t="s">
+        <v>96</v>
+      </c>
+      <c r="X30" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>73</v>
       </c>
@@ -2612,49 +3371,70 @@
         <v>45429</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F31" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G31" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H31" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I31" t="s">
-        <v>118</v>
-      </c>
-      <c r="J31" t="s">
-        <v>118</v>
+        <v>109</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L31" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M31" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O31" t="s">
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="Q31" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+      <c r="R31" s="29">
+        <v>478</v>
+      </c>
+      <c r="S31" s="32">
+        <v>262</v>
+      </c>
+      <c r="T31" s="30">
+        <v>336.2</v>
+      </c>
+      <c r="U31" s="31">
+        <v>1.95</v>
+      </c>
+      <c r="V31" s="33">
+        <v>4.74</v>
+      </c>
+      <c r="W31" t="s">
+        <v>154</v>
+      </c>
+      <c r="X31" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>74</v>
       </c>
@@ -2665,99 +3445,141 @@
         <v>45430</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="E32" t="s">
-        <v>118</v>
-      </c>
-      <c r="F32" t="s">
-        <v>118</v>
+        <v>36</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>118</v>
-      </c>
-      <c r="H32" t="s">
-        <v>118</v>
+        <v>27</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
       </c>
       <c r="I32" t="s">
-        <v>118</v>
-      </c>
-      <c r="J32" t="s">
-        <v>118</v>
-      </c>
-      <c r="K32" t="s">
-        <v>118</v>
+        <v>110</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <v>20</v>
       </c>
       <c r="L32" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="M32" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O32" t="s">
         <v>97</v>
       </c>
       <c r="Q32" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+      <c r="R32" s="29">
+        <v>22343</v>
+      </c>
+      <c r="S32" s="32">
+        <v>253</v>
+      </c>
+      <c r="T32" s="30">
+        <v>287.7</v>
+      </c>
+      <c r="U32" s="31">
+        <v>1.3</v>
+      </c>
+      <c r="V32" s="33">
+        <v>3.24</v>
+      </c>
+      <c r="W32" t="s">
+        <v>96</v>
+      </c>
+      <c r="X32" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C33" s="25">
         <v>45430</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="E33" t="s">
-        <v>118</v>
-      </c>
-      <c r="F33" t="s">
-        <v>118</v>
+        <v>36</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>118</v>
-      </c>
-      <c r="H33" t="s">
-        <v>118</v>
+        <v>27</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
       </c>
       <c r="I33" t="s">
-        <v>118</v>
-      </c>
-      <c r="J33" t="s">
-        <v>118</v>
-      </c>
-      <c r="K33" t="s">
-        <v>118</v>
+        <v>110</v>
+      </c>
+      <c r="J33">
+        <v>5</v>
+      </c>
+      <c r="K33">
+        <v>20</v>
       </c>
       <c r="L33" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="M33" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O33" t="s">
         <v>96</v>
       </c>
       <c r="P33" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="Q33" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+      <c r="R33" s="29">
+        <v>121990.71369999999</v>
+      </c>
+      <c r="S33" s="32">
+        <v>274</v>
+      </c>
+      <c r="T33" s="30">
+        <v>361.3</v>
+      </c>
+      <c r="U33" s="31">
+        <v>7.68</v>
+      </c>
+      <c r="V33" s="33">
+        <v>4.2</v>
+      </c>
+      <c r="W33" t="s">
+        <v>96</v>
+      </c>
+      <c r="X33" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>76</v>
       </c>
@@ -2768,49 +3590,70 @@
         <v>45435</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
-      </c>
-      <c r="F34" t="s">
-        <v>118</v>
+        <v>36</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>118</v>
-      </c>
-      <c r="H34" t="s">
-        <v>118</v>
+        <v>27</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
       </c>
       <c r="I34" t="s">
-        <v>118</v>
-      </c>
-      <c r="J34" t="s">
-        <v>118</v>
-      </c>
-      <c r="K34" t="s">
-        <v>118</v>
+        <v>80</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>18</v>
       </c>
       <c r="L34" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="M34" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O34" t="s">
         <v>96</v>
       </c>
       <c r="P34" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q34" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+      <c r="R34" s="29">
+        <v>6249</v>
+      </c>
+      <c r="S34" s="32">
+        <v>240</v>
+      </c>
+      <c r="T34" s="30">
+        <v>242.4</v>
+      </c>
+      <c r="U34" s="31">
+        <v>2.96</v>
+      </c>
+      <c r="V34" s="33">
+        <v>1.92</v>
+      </c>
+      <c r="W34" t="s">
+        <v>96</v>
+      </c>
+      <c r="X34" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>77</v>
       </c>
@@ -2821,31 +3664,31 @@
         <v>45452</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="E35" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="F35" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="G35" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="H35" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="I35" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="J35" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="K35" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="L35" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="M35" t="s">
         <v>81</v>
@@ -2857,7 +3700,28 @@
         <v>97</v>
       </c>
       <c r="Q35" t="s">
-        <v>135</v>
+        <v>131</v>
+      </c>
+      <c r="R35" s="29">
+        <v>25649</v>
+      </c>
+      <c r="S35" s="32">
+        <v>242</v>
+      </c>
+      <c r="T35" s="30">
+        <v>274.10000000000002</v>
+      </c>
+      <c r="U35" s="31">
+        <v>1</v>
+      </c>
+      <c r="V35" s="33">
+        <v>3.07</v>
+      </c>
+      <c r="W35" t="s">
+        <v>96</v>
+      </c>
+      <c r="X35" s="34" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2869,8 +3733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3DC90D-780A-4673-948B-37EA3913112E}">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3235,15 +4099,15 @@
         <v>91</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -3256,10 +4120,10 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
